--- a/Mess Management System.xlsx
+++ b/Mess Management System.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Microsoft Skills\MS Excel\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F91FB-975A-4A51-88C4-E34A39C54E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C44EB-58D3-4E5C-B1AD-ED04168747C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{D23BDF83-EC29-443A-99D8-A92077BA0B0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Name/Date</t>
   </si>
@@ -112,13 +112,40 @@
   </si>
   <si>
     <t>Caretaker Bill</t>
+  </si>
+  <si>
+    <r>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Special Note</t>
+    </r>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Gass</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +254,6 @@
       <color theme="6" tint="0.79998168889431442"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -344,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -575,13 +595,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,7 +751,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,7 +781,23 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +806,26 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -761,10 +847,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -970,7 +1052,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B4707DFB-346B-448C-9493-2C01C1222EFE}" name="Table3" displayName="Table3" ref="A2:F34" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B4707DFB-346B-448C-9493-2C01C1222EFE}" name="Table3" displayName="Table3" ref="A2:F34" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A2:F34" xr:uid="{E7308227-1C90-47EE-8180-1CB685C5C610}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -980,7 +1062,7 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{397854FE-29A1-41EC-A485-9E2A92D751B2}" name="Name/Date" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{397854FE-29A1-41EC-A485-9E2A92D751B2}" name="Name/Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{19F2E60E-B225-4A52-86CA-03BEC05A2E66}" name="Person 01"/>
     <tableColumn id="3" xr3:uid="{635700AE-E76C-4EBC-B048-72DB733059DA}" name="Person 02"/>
     <tableColumn id="4" xr3:uid="{B082BB2E-BE24-45EE-BFFA-AD81CC2EEAD8}" name="Person 03"/>
@@ -992,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8CB05668-C25E-40CC-98A4-472F8CBFECAE}" name="Table10" displayName="Table10" ref="G2:H34" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8CB05668-C25E-40CC-98A4-472F8CBFECAE}" name="Table10" displayName="Table10" ref="G2:H34" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="G2:H34" xr:uid="{CEB650F0-06BF-430F-ADB2-05C99B697890}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1006,16 +1088,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5B9DCBF-EED4-4DD9-9172-76E29F9D67EE}" name="Table2" displayName="Table2" ref="M2:O7" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5B9DCBF-EED4-4DD9-9172-76E29F9D67EE}" name="Table2" displayName="Table2" ref="M2:O7" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="M2:O7" xr:uid="{F31BAA70-4C59-43EC-8D45-8EF008FAF91A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F377893-7724-46F9-9539-F99238747FA3}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{DCF86FB3-19D3-4927-86A0-963B118597F7}" name="Total Meal" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EE8036BF-EF5B-49DF-A4A4-A57D136A6F42}" name="Bill" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{0F377893-7724-46F9-9539-F99238747FA3}" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DCF86FB3-19D3-4927-86A0-963B118597F7}" name="Total Meal" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EE8036BF-EF5B-49DF-A4A4-A57D136A6F42}" name="Bill" dataDxfId="10">
       <calculatedColumnFormula>N3*$K$4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1024,7 +1106,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF7DD323-45FA-42E3-AAF7-3B7A6858E15E}" name="Table5" displayName="Table5" ref="J11:P16" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF7DD323-45FA-42E3-AAF7-3B7A6858E15E}" name="Table5" displayName="Table5" ref="J11:P16" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="J11:P16" xr:uid="{5F30956B-87F1-4176-B7A2-B149D522C723}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1036,18 +1118,18 @@
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{724FDCB3-A272-4716-A762-AB363E23A7BF}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{BE56E835-0FD7-46D7-BBDC-F3B38171033B}" name="Mill Charge" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{BE56E835-0FD7-46D7-BBDC-F3B38171033B}" name="Mill Charge" dataDxfId="8">
       <calculatedColumnFormula>O3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D712EF1B-4BE1-4570-B996-9DC87916796F}" name="Utility" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{D712EF1B-4BE1-4570-B996-9DC87916796F}" name="Utility" dataDxfId="7">
       <calculatedColumnFormula>Sheet1!$S$16</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{2FAAAEBA-B835-4DAF-9EE8-6C80BA9385CD}" name="Caretaker Bill"/>
-    <tableColumn id="5" xr3:uid="{B1038C7F-1E7E-4611-A406-8FF8195304FD}" name="Total" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B1038C7F-1E7E-4611-A406-8FF8195304FD}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2637C3D4-763F-4048-9730-17938F07D520}" name="Deposit" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{CE8D7A1A-AB19-4E3D-8DB1-754C68C30608}" name="Current Status" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{2637C3D4-763F-4048-9730-17938F07D520}" name="Deposit" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{CE8D7A1A-AB19-4E3D-8DB1-754C68C30608}" name="Current Status" dataDxfId="0">
       <calculatedColumnFormula>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,14 +1138,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CD8AE64-14D7-43A5-8CED-6EDB2F10D6C1}" name="Table6" displayName="Table6" ref="R2:T14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CD8AE64-14D7-43A5-8CED-6EDB2F10D6C1}" name="Table6" displayName="Table6" ref="R2:T14" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="R2:T14" xr:uid="{44FF92F0-AF06-4113-8A62-96F8E1A58B3A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2FA5B63F-726E-483D-B295-648495A4CD1F}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2FA5B63F-726E-483D-B295-648495A4CD1F}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A8A1A1C9-36E3-41D8-B15B-7E95DB8737D9}" name="Ammount"/>
     <tableColumn id="3" xr3:uid="{BCFE5826-5481-4637-B5C1-9AF20E4D066B}" name="Reason"/>
   </tableColumns>
@@ -1340,7 +1422,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1508,7 @@
       </c>
       <c r="K2" s="45">
         <f>H34</f>
-        <v>0</v>
+        <v>11770</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>2</v>
@@ -1447,96 +1529,230 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44409</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>455</v>
+      </c>
       <c r="J3" s="52" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="46">
         <f>SUM(B34:F34)</f>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="1">
         <f>B34</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="21" t="e">
+        <v>54</v>
+      </c>
+      <c r="O3" s="21">
         <f>N3*$K$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="44"/>
+        <v>2169.2150170648465</v>
+      </c>
+      <c r="R3" s="29">
+        <v>44774</v>
+      </c>
+      <c r="S3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44410</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>560</v>
+      </c>
       <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49" t="e">
+      <c r="K4" s="49">
         <f>K2/K3</f>
-        <v>#DIV/0!</v>
+        <v>40.170648464163826</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="11">
         <f>C34</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="21" t="e">
+        <v>60</v>
+      </c>
+      <c r="O4" s="21">
         <f t="shared" ref="O4:O7" si="0">N4*$K$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="30"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2410.2389078498295</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="67">
+        <v>44774</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44411</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
       <c r="M5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="11">
         <f>D34</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="21" t="e">
+        <v>60</v>
+      </c>
+      <c r="O5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="30"/>
-      <c r="T5" s="31"/>
+        <v>2410.2389078498295</v>
+      </c>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="67">
+        <v>44776</v>
+      </c>
+      <c r="S5">
+        <v>800</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44412</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="11">
         <f>E34</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="21" t="e">
+        <v>66</v>
+      </c>
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="30"/>
-      <c r="T6" s="31"/>
+        <v>2651.2627986348125</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="30">
+        <v>44783</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44413</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>520</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="48"/>
@@ -1545,18 +1761,46 @@
       </c>
       <c r="N7" s="11">
         <f>F34</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="21" t="e">
+        <v>53</v>
+      </c>
+      <c r="O7" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="30"/>
-      <c r="T7" s="31"/>
+        <v>2129.0443686006829</v>
+      </c>
+      <c r="R7" s="30">
+        <v>44802</v>
+      </c>
+      <c r="S7">
+        <v>600</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44414</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>199</v>
       </c>
       <c r="N8" s="3"/>
       <c r="R8" s="30"/>
@@ -1566,6 +1810,27 @@
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44415</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>1200</v>
       </c>
       <c r="J9" s="59" t="s">
         <v>16</v>
@@ -1582,6 +1847,21 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44416</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1597,6 +1877,21 @@
       <c r="A11" s="3">
         <v>44417</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="J11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1625,28 +1920,52 @@
       <c r="A12" s="3">
         <v>44418</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>520</v>
+      </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="21" t="e">
+      <c r="K12" s="21">
         <f t="shared" ref="K12:K16" si="1">O3</f>
-        <v>#DIV/0!</v>
+        <v>2169.2150170648465</v>
       </c>
       <c r="L12" s="21">
         <f>$S$16</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="e">
+        <v>780</v>
+      </c>
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12" s="22">
         <f>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</f>
-        <v>#DIV/0!</v>
+        <v>3449.2150170648465</v>
       </c>
       <c r="O12" s="24">
         <f>$K$34</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="e">
+        <v>3500</v>
+      </c>
+      <c r="P12" s="72">
         <f>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</f>
-        <v>#DIV/0!</v>
+        <v>50.784982935153494</v>
       </c>
       <c r="R12" s="31"/>
       <c r="T12" s="31"/>
@@ -1655,28 +1974,46 @@
       <c r="A13" s="3">
         <v>44419</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="21" t="e">
+      <c r="K13" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2410.2389078498295</v>
       </c>
       <c r="L13" s="21">
-        <f t="shared" ref="L13:L15" si="2">$S$16</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22" t="e">
+        <f t="shared" ref="L13:L16" si="2">$S$16</f>
+        <v>780</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13" s="22">
         <f>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</f>
-        <v>#DIV/0!</v>
+        <v>3690.2389078498295</v>
       </c>
       <c r="O13" s="25">
         <f>$M$34</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22" t="e">
+        <v>1500</v>
+      </c>
+      <c r="P13" s="72">
         <f>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</f>
-        <v>#DIV/0!</v>
+        <v>-2190.2389078498295</v>
       </c>
       <c r="R13" s="31"/>
       <c r="T13" s="31"/>
@@ -1685,28 +2022,52 @@
       <c r="A14" s="3">
         <v>44420</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>522</v>
+      </c>
       <c r="J14" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="21" t="e">
+      <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2410.2389078498295</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="22" t="e">
+        <v>780</v>
+      </c>
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14" s="22">
         <f>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</f>
-        <v>#DIV/0!</v>
+        <v>3690.2389078498295</v>
       </c>
       <c r="O14" s="24">
         <f>$O$34</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="e">
+        <v>3000</v>
+      </c>
+      <c r="P14" s="72">
         <f>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</f>
-        <v>#DIV/0!</v>
+        <v>-690.2389078498295</v>
       </c>
       <c r="R14" s="31"/>
       <c r="T14" s="12"/>
@@ -1715,35 +2076,59 @@
       <c r="A15" s="3">
         <v>44421</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
       <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="21" t="e">
+      <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2651.2627986348125</v>
       </c>
       <c r="L15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="22" t="e">
+        <v>780</v>
+      </c>
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15" s="22">
         <f>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</f>
-        <v>#DIV/0!</v>
+        <v>3931.2627986348125</v>
       </c>
       <c r="O15" s="25">
         <f>$Q$34</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22" t="e">
+        <v>4000</v>
+      </c>
+      <c r="P15" s="72">
         <f>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</f>
-        <v>#DIV/0!</v>
+        <v>68.737201365187502</v>
       </c>
       <c r="R15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="S15" s="15">
         <f>SUM(Table6[Ammount])</f>
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="T15" s="12"/>
     </row>
@@ -1751,32 +2136,53 @@
       <c r="A16" s="3">
         <v>44422</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
       <c r="J16" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="21" t="e">
+      <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="N16" s="22" t="e">
+        <v>2129.0443686006829</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16" s="22">
         <f>SUM(Table5[[#This Row],[Mill Charge]:[Caretaker Bill]])</f>
-        <v>#DIV/0!</v>
+        <v>3409.0443686006829</v>
       </c>
       <c r="O16" s="26">
         <f>$S$34</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="e">
+        <v>4000</v>
+      </c>
+      <c r="P16" s="72">
         <f>Table5[[#This Row],[Deposit]]-Table5[[#This Row],[Total]]</f>
-        <v>#DIV/0!</v>
+        <v>590.9556313993171</v>
       </c>
       <c r="R16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="S16" s="27">
-        <f>S15/4</f>
-        <v>0</v>
+        <f>S15/5</f>
+        <v>780</v>
       </c>
       <c r="T16" s="12"/>
     </row>
@@ -1784,10 +2190,46 @@
       <c r="A17" s="3">
         <v>44423</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>255</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44424</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="18" t="s">
@@ -1807,6 +2249,21 @@
       <c r="A19" s="3">
         <v>44425</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="J19" s="57" t="s">
         <v>21</v>
       </c>
@@ -1823,6 +2280,27 @@
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44426</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
       </c>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
@@ -1839,31 +2317,67 @@
       <c r="A21" s="3">
         <v>44427</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="J21" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="56"/>
+      <c r="L21" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66" t="s">
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66" t="s">
+      <c r="O21" s="56"/>
+      <c r="P21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66" t="s">
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="66"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44428</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
       <c r="J22" s="54" t="s">
         <v>18</v>
       </c>
@@ -1899,38 +2413,141 @@
       <c r="A23" s="3">
         <v>44429</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="32"/>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>777</v>
+      </c>
+      <c r="J23" s="35">
+        <v>44774</v>
+      </c>
+      <c r="K23" s="32">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="53">
+        <v>44775</v>
+      </c>
+      <c r="M23" s="32">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="35">
+        <v>44774</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="P23" s="35">
+        <v>44779</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>3500</v>
+      </c>
+      <c r="R23" s="53">
+        <v>44774</v>
+      </c>
+      <c r="S23" s="32">
+        <v>2000</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44430</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="32"/>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>825</v>
+      </c>
+      <c r="J24" s="35">
+        <v>44778</v>
+      </c>
+      <c r="K24" s="32">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="53">
+        <v>44780</v>
+      </c>
+      <c r="M24" s="32">
+        <v>500</v>
+      </c>
       <c r="N24" s="41"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
+      <c r="P24" s="35">
+        <v>44788</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>500</v>
+      </c>
+      <c r="R24" s="53">
+        <v>44783</v>
+      </c>
+      <c r="S24" s="32">
+        <v>2000</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44431</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="32"/>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>999</v>
+      </c>
+      <c r="J25" s="35">
+        <v>44783</v>
+      </c>
+      <c r="K25" s="32">
+        <v>500</v>
+      </c>
       <c r="L25" s="53"/>
       <c r="M25" s="32"/>
       <c r="N25" s="35"/>
@@ -1943,6 +2560,27 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44432</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>256</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="2"/>
@@ -1959,6 +2597,21 @@
       <c r="A27" s="3">
         <v>44433</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="J27" s="36"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
@@ -1974,7 +2627,21 @@
       <c r="A28" s="3">
         <v>44434</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="55">
+        <v>1</v>
+      </c>
       <c r="J28" s="36"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
@@ -1990,6 +2657,27 @@
       <c r="A29" s="3">
         <v>44435</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>1012</v>
+      </c>
       <c r="J29" s="36"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -2005,7 +2693,27 @@
       <c r="A30" s="3">
         <v>44436</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>520</v>
+      </c>
       <c r="J30" s="36"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
@@ -2021,6 +2729,21 @@
       <c r="A31" s="3">
         <v>44437</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
       <c r="J31" s="36"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -2036,6 +2759,21 @@
       <c r="A32" s="3">
         <v>44438</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="J32" s="37"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
@@ -2051,6 +2789,27 @@
       <c r="A33" s="3">
         <v>44439</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
       <c r="J33" s="38"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -2068,74 +2827,69 @@
       </c>
       <c r="B34" s="4">
         <f>SUM(B3:B33)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4">
         <f>SUM(C3:C33)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
         <f>SUM(D3:D33)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4">
         <f>SUM(E3:E33)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4">
         <f>SUM(F3:F33)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="5">
         <f>SUM(H3:H33)</f>
-        <v>0</v>
+        <v>11770</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K34" s="42">
         <f>SUM(K23:K33)</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>4</v>
       </c>
       <c r="M34" s="42">
         <f>SUM(M23:M33)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>4</v>
       </c>
       <c r="O34" s="42">
         <f>SUM(O23:O33)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P34" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Q34" s="42">
         <f>SUM(Q23:Q33)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="R34" s="20" t="s">
         <v>4</v>
       </c>
       <c r="S34" s="43">
         <f>SUM(S23:S33)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
+  <mergeCells count="13">
     <mergeCell ref="J19:S20"/>
     <mergeCell ref="J9:P10"/>
     <mergeCell ref="R1:T1"/>
@@ -2143,9 +2897,15 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <conditionalFormatting sqref="J21:S22 P23:S23 J25:S33 J24:M24 O24:S24 J23:N23">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2157,13 +2917,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:S33">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
